--- a/szxc_data_cleaning/tests/import/10土地信息_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/10土地信息_导入模板.xlsx
@@ -1,43 +1,230 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12B62CE-0CD9-4E38-9C3C-690C89919948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="土地信息" sheetId="1" r:id="rId1"/>
+    <sheet name="字典项" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">土地信息!$C$1:$C$69</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Esther</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前土地类别限定如下：
+自留地，宅基地，承包地，集体建设用地</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>土地名称</t>
+  </si>
+  <si>
+    <t>土地编号</t>
+  </si>
+  <si>
+    <t>土地类别</t>
+  </si>
+  <si>
+    <t>面积（亩）</t>
+  </si>
+  <si>
+    <t>土地用途</t>
+  </si>
+  <si>
+    <t>登记日期</t>
+  </si>
+  <si>
+    <t>地类</t>
+  </si>
+  <si>
+    <t>是否基本农田</t>
+  </si>
+  <si>
+    <t>四邻信息（东）</t>
+  </si>
+  <si>
+    <t>四邻信息（南）</t>
+  </si>
+  <si>
+    <t>四邻信息（西）</t>
+  </si>
+  <si>
+    <t>四邻信息（北）</t>
+  </si>
+  <si>
+    <t>户主身份证号</t>
+  </si>
+  <si>
+    <t>土地描述</t>
+  </si>
+  <si>
+    <t>老稻田</t>
+  </si>
+  <si>
+    <t>04181201-1</t>
+  </si>
+  <si>
+    <t>承包地</t>
+  </si>
+  <si>
+    <t>粮食</t>
+  </si>
+  <si>
+    <t>320***********2221</t>
+  </si>
+  <si>
+    <t>水田</t>
+  </si>
+  <si>
+    <t>土地类型</t>
+  </si>
+  <si>
+    <t>自留地</t>
+  </si>
+  <si>
+    <t>宅基地</t>
+  </si>
+  <si>
+    <t>集体建设用地</t>
+  </si>
+  <si>
+    <t>0.59</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +232,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -79,44 +339,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +406,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -190,153 +450,356 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10">
+        <v>35796</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【土地名称】栏" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>OR(#REF!&lt;&gt;"")</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="请输入正确的数字" sqref="A1:A1048576" xr:uid="{7A730AF2-9911-4421-BCA4-631302587E94}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的“是否基本农田”选项" sqref="I1:I1048576" xr:uid="{B00140CC-4FA7-4719-A8BC-D32185DE346B}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" error="请输入正确的登记日期" sqref="G1:G1048576" xr:uid="{1D811424-D45A-41D9-98A8-77AD07E58C62}">
+      <formula1>1</formula1>
+      <formula2>401768</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" error="请输入正确的身份证号" sqref="N1:N1048576" xr:uid="{A71DA706-40B5-4551-9F18-0083CEF4F60D}">
+      <formula1>15</formula1>
+      <formula2>18</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请填写正确的面积" sqref="E1:E1048576" xr:uid="{2C23F819-62E5-4904-A86A-9709ECE78218}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="请选择正确的土地类别" xr:uid="{DF4A9C2B-8A73-43FD-BCE9-1523DBEEDDB0}">
+          <x14:formula1>
+            <xm:f>字典项!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>